--- a/revised input 10252018/mixing state input.xlsx
+++ b/revised input 10252018/mixing state input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingye1009/Library/Containers/com.microsoft.Excel/Data/Desktop/matlab_Ye_2018a/new20181023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugh/Box Sync/from_dropbox/ACE hugh/ACE R/ACE_LUR/local_lur/revised input 10252018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA38A21-CB9B-1047-910B-A0301BD995C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B825C-4775-7342-B814-E41B206991DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="460" windowWidth="27640" windowHeight="16220" activeTab="1" xr2:uid="{93746AC7-FEE3-E34F-AEE0-C0FB12731602}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15060" activeTab="1" xr2:uid="{93746AC7-FEE3-E34F-AEE0-C0FB12731602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>200cell id</t>
   </si>
@@ -109,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +116,13 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,11 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2451B60E-60A9-5940-901C-37670B2D7A0B}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,6 +482,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
@@ -1125,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4F851-500D-D04A-B501-02D9DEB00522}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E11"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,6 +1331,116 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.29600000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.33499999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="D15">
+        <v>0.47350000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D16">
+        <v>0.45599999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.54133332999999995</v>
+      </c>
+      <c r="D18">
+        <v>0.45866666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D20">
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.505</v>
+      </c>
+      <c r="D21">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.47450000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
